--- a/biology/Médecine/François_Herrgott/François_Herrgott.xlsx
+++ b/biology/Médecine/François_Herrgott/François_Herrgott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Herrgott</t>
+          <t>François_Herrgott</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Joseph Herrgott, né le 12 septembre 1814 à Guebwiller et mort à 4 mars 1907 à Nancy est un médecin gynécologue et obstétricien français, disciple de Charles-Emmanuel Sédillot, membre de l'Académie de médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Herrgott</t>
+          <t>François_Herrgott</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d'un fondeur d'étain. Après des études à la Faculté de médecine de Strasbourg,où il suit les cours de médecine opératoire du professeur Bégin, il est fait docteur en médecine en 1839 en soutenant sa thèse intitulée Essai sur les différentes variétés de forme de la matrice, pendant la gestation et l'accouchement. En 1841, il est nommé chirurgien-adjoint puis chirurgien-chef de l'Hôpital civil de Belfort. En 1848, confronté au choléra, il est médecin des épidémies de l'arrondissement de Belfort : il est distingué par la médaille d'argent du choléra en 1855.
 Il est reçu professeur agrégé de chirurgie à la Faculté de médecine de Strasbourg en 1872. Spécialisé dans la chirurgie gynécologique et les accouchements, il sera l'un des premiers chirurgiens français à utiliser le chloroforme comme anesthésiant. Il pratique une des premières ovariectomies en France, le 23 novembre 1858.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Herrgott</t>
+          <t>François_Herrgott</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Membre correspondant de l'Académie des sciences
 Chevalier de la Légion d'honneur pour services distingués rendus pendant le siège de Strasbourg
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Herrgott</t>
+          <t>François_Herrgott</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Essai sur les différentes variétés de forme de la matrice, pendant la gestation et l'accouchement suivi de la solution de quatre questions proposées pour la réception au doctorat, [Thèse de doctorat de médecine], Imprimerie de G. Silbermann, Strasbourg, 1839.
 Titres soumis à S.E.M. le ministre de l'Instruction publique, à MM. les membres de la Faculté de médecine et MM. les membres du Conseil académique, par le Dr F.-J. Herrgott... à l'appui de sa candidature à la chaire de médecine opératoire, vacante à la Faculté de médecine de Strasbourg, Strasbourg, Impr. de G. Silbermann, 1856.
